--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1577,28 +1577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.9773779726187</v>
+        <v>170.058965604015</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.7360503886186</v>
+        <v>232.6821792113724</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.1549255796554</v>
+        <v>210.4753185989957</v>
       </c>
       <c r="AD2" t="n">
-        <v>126977.3779726187</v>
+        <v>170058.965604015</v>
       </c>
       <c r="AE2" t="n">
-        <v>173736.0503886186</v>
+        <v>232682.1792113724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.975342075858007e-06</v>
+        <v>4.289444790892115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157154.9255796554</v>
+        <v>210475.3185989957</v>
       </c>
     </row>
     <row r="3">
@@ -1683,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.4721295452324</v>
+        <v>146.0056902357169</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.521085446996</v>
+        <v>199.7714266968668</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.9646871166643</v>
+        <v>180.7055221139328</v>
       </c>
       <c r="AD3" t="n">
-        <v>111472.1295452324</v>
+        <v>146005.6902357169</v>
       </c>
       <c r="AE3" t="n">
-        <v>152521.085446996</v>
+        <v>199771.4266968668</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31895242102711e-06</v>
+        <v>4.78481559787982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>137964.6871166643</v>
+        <v>180705.5221139328</v>
       </c>
     </row>
   </sheetData>
@@ -1980,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2916439934546</v>
+        <v>150.208169567877</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1694048019361</v>
+        <v>205.5214443194286</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0283247647454</v>
+        <v>185.9067661247996</v>
       </c>
       <c r="AD2" t="n">
-        <v>108291.6439934546</v>
+        <v>150208.169567877</v>
       </c>
       <c r="AE2" t="n">
-        <v>148169.4048019362</v>
+        <v>205521.4443194286</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.394944527718118e-06</v>
+        <v>4.97007107432116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.2578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>134028.3247647454</v>
+        <v>185906.7661247996</v>
       </c>
     </row>
     <row r="3">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4563142552904</v>
+        <v>141.1260979838531</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0264698020333</v>
+        <v>193.0949533054531</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9944698771135</v>
+        <v>174.6662419725042</v>
       </c>
       <c r="AD3" t="n">
-        <v>107456.3142552904</v>
+        <v>141126.0979838531</v>
       </c>
       <c r="AE3" t="n">
-        <v>147026.4698020333</v>
+        <v>193094.9533054531</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.465597081012639e-06</v>
+        <v>5.073503754469268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>132994.4698771135</v>
+        <v>174666.2419725042</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.97824808377375</v>
+        <v>136.8146917549725</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0581615234023</v>
+        <v>187.1958970972828</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.263838739456</v>
+        <v>169.3301834094625</v>
       </c>
       <c r="AD2" t="n">
-        <v>97978.24808377375</v>
+        <v>136814.6917549725</v>
       </c>
       <c r="AE2" t="n">
-        <v>134058.1615234023</v>
+        <v>187195.8970972828</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648182001683943e-06</v>
+        <v>5.644187862344256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>121263.838739456</v>
+        <v>169330.1834094625</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0189771393917</v>
+        <v>133.1049286949207</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.218621164795</v>
+        <v>182.120035615327</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.0272299519172</v>
+        <v>164.7387550233267</v>
       </c>
       <c r="AD2" t="n">
-        <v>101018.9771393917</v>
+        <v>133104.9286949207</v>
       </c>
       <c r="AE2" t="n">
-        <v>138218.621164795</v>
+        <v>182120.035615327</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.640453747199127e-06</v>
+        <v>5.50179579052476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>125027.2299519173</v>
+        <v>164738.7550233267</v>
       </c>
     </row>
   </sheetData>
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7957691378634</v>
+        <v>141.5045759775481</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0179504805191</v>
+        <v>193.612803593697</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4639566101421</v>
+        <v>175.1346693560458</v>
       </c>
       <c r="AD2" t="n">
-        <v>103795.7691378634</v>
+        <v>141504.5759775481</v>
       </c>
       <c r="AE2" t="n">
-        <v>142017.9504805192</v>
+        <v>193612.803593697</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.543332403531764e-06</v>
+        <v>5.60019430957349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128463.9566101421</v>
+        <v>175134.6693560458</v>
       </c>
     </row>
   </sheetData>
@@ -3274,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5584456268133</v>
+        <v>152.7587666884222</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.2709428009261</v>
+        <v>209.0112838241601</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.8338563301486</v>
+        <v>189.0635402452211</v>
       </c>
       <c r="AD2" t="n">
-        <v>110558.4456268133</v>
+        <v>152758.7666884222</v>
       </c>
       <c r="AE2" t="n">
-        <v>151270.9428009261</v>
+        <v>209011.2838241601</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289787763897178e-06</v>
+        <v>4.79613647440459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.466145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>136833.8563301486</v>
+        <v>189063.5402452211</v>
       </c>
     </row>
     <row r="3">
@@ -3380,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7069033866213</v>
+        <v>142.6037235049332</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.737581023618</v>
+        <v>195.1167057316311</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.5422750452704</v>
+        <v>176.4950411846759</v>
       </c>
       <c r="AD3" t="n">
-        <v>108706.9033866213</v>
+        <v>142603.7235049332</v>
       </c>
       <c r="AE3" t="n">
-        <v>148737.581023618</v>
+        <v>195116.7057316311</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.409842355988074e-06</v>
+        <v>4.971162418134408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>134542.2750452704</v>
+        <v>176495.0411846759</v>
       </c>
     </row>
   </sheetData>
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1307355049327</v>
+        <v>147.6575665366232</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.1080221247305</v>
+        <v>202.0315967274047</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.6408705395372</v>
+        <v>182.7499846889256</v>
       </c>
       <c r="AD2" t="n">
-        <v>103130.7355049327</v>
+        <v>147657.5665366232</v>
       </c>
       <c r="AE2" t="n">
-        <v>141108.0221247305</v>
+        <v>202031.5967274047</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407703756950765e-06</v>
+        <v>5.45994188033485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>127640.8705395372</v>
+        <v>182749.9846889256</v>
       </c>
     </row>
   </sheetData>
@@ -3974,28 +3974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.1904022457171</v>
+        <v>137.1233430421593</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.5579049086682</v>
+        <v>187.6182074051453</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.9523785454996</v>
+        <v>169.712189014259</v>
       </c>
       <c r="AD2" t="n">
-        <v>104190.4022457171</v>
+        <v>137123.3430421592</v>
       </c>
       <c r="AE2" t="n">
-        <v>142557.9049086682</v>
+        <v>187618.2074051453</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567628606678496e-06</v>
+        <v>5.297369066511063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>128952.3785454996</v>
+        <v>169712.189014259</v>
       </c>
     </row>
   </sheetData>
@@ -4271,28 +4271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.6896360352016</v>
+        <v>140.123750030339</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.9774668378524</v>
+        <v>191.723496614985</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.0455822835488</v>
+        <v>173.4256751837225</v>
       </c>
       <c r="AD2" t="n">
-        <v>106689.6360352016</v>
+        <v>140123.750030339</v>
       </c>
       <c r="AE2" t="n">
-        <v>145977.4668378524</v>
+        <v>191723.496614985</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.471798837084674e-06</v>
+        <v>5.105080489085287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>132045.5822835488</v>
+        <v>173425.6751837225</v>
       </c>
     </row>
     <row r="3">
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4622202254797</v>
+        <v>139.8963342206171</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.6663064941136</v>
+        <v>191.4123362712462</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.7641186463001</v>
+        <v>173.1442115464737</v>
       </c>
       <c r="AD3" t="n">
-        <v>106462.2202254797</v>
+        <v>139896.3342206171</v>
       </c>
       <c r="AE3" t="n">
-        <v>145666.3064941136</v>
+        <v>191412.3362712462</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493493314048511e-06</v>
+        <v>5.136980969575682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>131764.1186463</v>
+        <v>173144.2115464737</v>
       </c>
     </row>
   </sheetData>
@@ -4674,28 +4674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.29871542699</v>
+        <v>166.6200049678211</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7567890674688</v>
+        <v>227.9768415526985</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7007025319569</v>
+        <v>206.2190517624814</v>
       </c>
       <c r="AD2" t="n">
-        <v>115298.71542699</v>
+        <v>166620.0049678211</v>
       </c>
       <c r="AE2" t="n">
-        <v>157756.7890674688</v>
+        <v>227976.8415526985</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092980663051695e-06</v>
+        <v>4.474839386951044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>142700.7025319569</v>
+        <v>206219.0517624814</v>
       </c>
     </row>
     <row r="3">
@@ -4780,28 +4780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.4780298587159</v>
+        <v>144.8061002005832</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.1609143993219</v>
+        <v>198.1300946886203</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.7343288847676</v>
+        <v>179.220836528929</v>
       </c>
       <c r="AD3" t="n">
-        <v>110478.0298587159</v>
+        <v>144806.1002005832</v>
       </c>
       <c r="AE3" t="n">
-        <v>151160.9143993219</v>
+        <v>198130.0946886203</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.356754206236053e-06</v>
+        <v>4.856459697215903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>136734.3288847677</v>
+        <v>179220.836528929</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3094992047532</v>
+        <v>134.6928256460995</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.984370388437</v>
+        <v>184.2926662769982</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6244585479</v>
+        <v>166.7040328639549</v>
       </c>
       <c r="AD2" t="n">
-        <v>102309.4992047532</v>
+        <v>134692.8256460995</v>
       </c>
       <c r="AE2" t="n">
-        <v>139984.370388437</v>
+        <v>184292.6662769982</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606778932063248e-06</v>
+        <v>5.416244428504288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>126624.4585479</v>
+        <v>166704.0328639549</v>
       </c>
     </row>
   </sheetData>
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.99729707725882</v>
+        <v>138.1176648370683</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4524693135565</v>
+        <v>188.9786823513208</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.5250757510416</v>
+        <v>170.9428221410105</v>
       </c>
       <c r="AD2" t="n">
-        <v>98997.29707725882</v>
+        <v>138117.6648370683</v>
       </c>
       <c r="AE2" t="n">
-        <v>135452.4693135565</v>
+        <v>188978.6823513208</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.659415404537424e-06</v>
+        <v>5.612616479516984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>122525.0757510416</v>
+        <v>170942.8221410105</v>
       </c>
     </row>
   </sheetData>
@@ -8588,28 +8588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.04706813673863</v>
+        <v>135.3883685871951</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.7840800391095</v>
+        <v>185.2443388141937</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1113538038391</v>
+        <v>167.5648791098816</v>
       </c>
       <c r="AD2" t="n">
-        <v>97047.06813673863</v>
+        <v>135388.3685871951</v>
       </c>
       <c r="AE2" t="n">
-        <v>132784.0800391095</v>
+        <v>185244.3388141937</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609464132514725e-06</v>
+        <v>5.639716509054802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120111.3538038391</v>
+        <v>167564.8791098816</v>
       </c>
     </row>
   </sheetData>
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.806422157977</v>
+        <v>161.471707766944</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.1879440490164</v>
+        <v>220.9327141956193</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.804392897723</v>
+        <v>199.8472060338647</v>
       </c>
       <c r="AD2" t="n">
-        <v>117806.422157977</v>
+        <v>161471.707766944</v>
       </c>
       <c r="AE2" t="n">
-        <v>161187.9440490164</v>
+        <v>220932.7141956193</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.155254680923226e-06</v>
+        <v>5.142043247338833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>145804.392897723</v>
+        <v>199847.2060338647</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.3212010903082</v>
+        <v>138.5100731557436</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.1051137751612</v>
+        <v>189.5155927247653</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.3519239692962</v>
+        <v>171.4284905419721</v>
       </c>
       <c r="AD2" t="n">
-        <v>105321.2010903082</v>
+        <v>138510.0731557436</v>
       </c>
       <c r="AE2" t="n">
-        <v>144105.1137751612</v>
+        <v>189515.5927247653</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522607543296977e-06</v>
+        <v>5.204232767199667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>130351.9239692962</v>
+        <v>171428.4905419721</v>
       </c>
     </row>
     <row r="3">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.4457238985781</v>
+        <v>138.6345959640135</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.2754913749946</v>
+        <v>189.6859703245987</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.5060409701281</v>
+        <v>171.5826075428039</v>
       </c>
       <c r="AD3" t="n">
-        <v>105445.7238985781</v>
+        <v>138634.5959640135</v>
       </c>
       <c r="AE3" t="n">
-        <v>144275.4913749946</v>
+        <v>189685.9703245987</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523444594654725e-06</v>
+        <v>5.205469410808209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>130506.0409701281</v>
+        <v>171582.6075428039</v>
       </c>
     </row>
   </sheetData>
@@ -9585,28 +9585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2243365672748</v>
+        <v>155.8692507708074</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.9185323964714</v>
+        <v>213.2671853705503</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1333250941204</v>
+        <v>192.9132645212206</v>
       </c>
       <c r="AD2" t="n">
-        <v>113224.3365672748</v>
+        <v>155869.2507708074</v>
       </c>
       <c r="AE2" t="n">
-        <v>154918.5323964714</v>
+        <v>213267.1853705503</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>4.609333430631742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>140133.3250941203</v>
+        <v>192913.2645212206</v>
       </c>
     </row>
     <row r="3">
@@ -9691,28 +9691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.6611194678734</v>
+        <v>143.7771403392506</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.0431815630289</v>
+        <v>196.7222264118405</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7232709016222</v>
+        <v>177.947333224529</v>
       </c>
       <c r="AD3" t="n">
-        <v>109661.1194678734</v>
+        <v>143777.1403392506</v>
       </c>
       <c r="AE3" t="n">
-        <v>150043.1815630289</v>
+        <v>196722.2264118405</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.373596052981747e-06</v>
+        <v>4.899031659387758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>135723.2709016222</v>
+        <v>177947.333224529</v>
       </c>
     </row>
   </sheetData>
@@ -9988,28 +9988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2611647812839</v>
+        <v>190.1011356888004</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3338047213387</v>
+        <v>260.1047605195025</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9321223058875</v>
+        <v>235.2807272349212</v>
       </c>
       <c r="AD2" t="n">
-        <v>133261.1647812839</v>
+        <v>190101.1356888004</v>
       </c>
       <c r="AE2" t="n">
-        <v>182333.8047213387</v>
+        <v>260104.7605195025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.673603210842474e-06</v>
+        <v>4.456737261756953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>164932.1223058875</v>
+        <v>235280.7272349212</v>
       </c>
     </row>
   </sheetData>
@@ -10285,28 +10285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1472375783543</v>
+        <v>139.689350256841</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.025868638949</v>
+        <v>191.1291316805198</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.948312053099</v>
+        <v>172.888035604406</v>
       </c>
       <c r="AD2" t="n">
-        <v>100147.2375783543</v>
+        <v>139689.350256841</v>
       </c>
       <c r="AE2" t="n">
-        <v>137025.8686389491</v>
+        <v>191129.1316805198</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.645189964296913e-06</v>
+        <v>5.547638744097479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>123948.312053099</v>
+        <v>172888.035604406</v>
       </c>
     </row>
   </sheetData>
@@ -10582,28 +10582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2982206073578</v>
+        <v>135.9631947280332</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.3371826307898</v>
+        <v>186.0308412996274</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.848160288527</v>
+        <v>168.2763189019689</v>
       </c>
       <c r="AD2" t="n">
-        <v>103298.2206073578</v>
+        <v>135963.1947280332</v>
       </c>
       <c r="AE2" t="n">
-        <v>141337.1826307898</v>
+        <v>186030.8412996274</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.584273969383711e-06</v>
+        <v>5.351000939195304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>127848.160288527</v>
+        <v>168276.3189019689</v>
       </c>
     </row>
   </sheetData>
